--- a/rolar_opcoes_CMIG4_CMIGG154_CMIGH131.xlsx
+++ b/rolar_opcoes_CMIG4_CMIGG154_CMIGH131.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>% sobre CMIGG154</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -499,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.76</v>
+        <v>12.65</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,6 +516,9 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -530,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -545,6 +553,9 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -561,13 +572,13 @@
         <v>13.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="G4" t="n">
         <v>-0.09999999999999964</v>
@@ -576,10 +587,87 @@
         <v>-0.7490636704119868</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1800000000000004</v>
+        <v>0.1800000000000003</v>
       </c>
       <c r="J4" t="n">
-        <v>1.348314606741576</v>
+        <v>1.348314606741575</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CMIGH134</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1500000000000004</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.12359550561798</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3500000000000004</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.62172284644195</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CMIGH139</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6500000000000004</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.868913857677915</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7300000000000004</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.468164794007494</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.08000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/rolar_opcoes_CMIG4_CMIGG154_CMIGH131.xlsx
+++ b/rolar_opcoes_CMIG4_CMIGG154_CMIGH131.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-07-06" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.65</v>
+        <v>12.05</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="F3" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -572,28 +572,28 @@
         <v>13.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.55</v>
+        <v>0.18</v>
       </c>
       <c r="G4" t="n">
         <v>-0.09999999999999964</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.7490636704119868</v>
+        <v>-0.75</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1800000000000003</v>
+        <v>0.07000000000000037</v>
       </c>
       <c r="J4" t="n">
-        <v>1.348314606741575</v>
+        <v>0.52</v>
       </c>
       <c r="K4" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -609,28 +609,28 @@
         <v>13.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="G5" t="n">
         <v>0.1500000000000004</v>
       </c>
       <c r="H5" t="n">
-        <v>1.12359550561798</v>
+        <v>1.12</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3500000000000004</v>
+        <v>0.2700000000000004</v>
       </c>
       <c r="J5" t="n">
-        <v>2.62172284644195</v>
+        <v>2.02</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -646,28 +646,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="G6" t="n">
         <v>0.6500000000000004</v>
       </c>
       <c r="H6" t="n">
-        <v>4.868913857677915</v>
+        <v>4.87</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7300000000000004</v>
+        <v>0.7200000000000003</v>
       </c>
       <c r="J6" t="n">
-        <v>5.468164794007494</v>
+        <v>5.39</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08000000000000002</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
